--- a/biz.webgate.domino.poi.exampledatabase/Resources/Files/SampleExcel.xlsx
+++ b/biz.webgate.domino.poi.exampledatabase/Resources/Files/SampleExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Firstname</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>&lt;&lt;date&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>UniversalID</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,13 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="F1" t="s">
@@ -467,6 +476,12 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
